--- a/Selga_DailyTask.xlsx
+++ b/Selga_DailyTask.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My Computer\Desktop\Group 2- Sept. 5, 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danica\SE_Grp2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6544A8-957F-4A9B-AC04-044B6B7D1628}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B59BAAB-4177-4B78-8A0E-848563EFE312}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C6E74CF2-123D-440E-A562-D7A1C00E054F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Aug 28- Sep 5" sheetId="1" r:id="rId1"/>
+    <sheet name="Sep 11-14" sheetId="2" r:id="rId2"/>
+    <sheet name="Sep 16-20" sheetId="3" r:id="rId3"/>
+    <sheet name="Sep 23-27" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,25 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
-  <si>
-    <t>ACTIVITY</t>
-  </si>
-  <si>
-    <t>DATE STARTED</t>
-  </si>
-  <si>
-    <t>TIME STARTED</t>
-  </si>
-  <si>
-    <t>DATE END</t>
-  </si>
-  <si>
-    <t>TIME END</t>
-  </si>
-  <si>
-    <t>Research</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>7:30PM</t>
   </si>
@@ -56,24 +41,9 @@
     <t>9:30AM</t>
   </si>
   <si>
-    <t>9:00PM</t>
-  </si>
-  <si>
     <t>10:30AM</t>
   </si>
   <si>
-    <t>Assignment #1</t>
-  </si>
-  <si>
-    <t>08-28-19</t>
-  </si>
-  <si>
-    <t>8PM</t>
-  </si>
-  <si>
-    <t>9PM</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -113,9 +83,6 @@
     <t>10:34PM</t>
   </si>
   <si>
-    <t>loading form</t>
-  </si>
-  <si>
     <t>12:00PM</t>
   </si>
   <si>
@@ -128,7 +95,25 @@
     <t>1:30PM</t>
   </si>
   <si>
-    <t>Tomorrow</t>
+    <t>Research about System Proposals</t>
+  </si>
+  <si>
+    <t>Loading form and Login</t>
+  </si>
+  <si>
+    <t>Buying materials for minature</t>
+  </si>
+  <si>
+    <t>Visitation for Client</t>
+  </si>
+  <si>
+    <t>6:00PM</t>
+  </si>
+  <si>
+    <t>10:30am</t>
+  </si>
+  <si>
+    <t>1:30pm</t>
   </si>
 </sst>
 </file>
@@ -147,16 +132,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Century Gothic"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Century Gothic"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -355,11 +338,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -373,55 +408,71 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -738,10 +789,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E34E7C-B1B8-4314-A30C-B813676F7C49}">
-  <dimension ref="B2:F15"/>
+  <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B3" sqref="B3:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="39.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2"/>
+    </row>
+    <row r="3" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B4" s="5">
+        <v>43710</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>43710</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="10">
+        <v>43594</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
+        <v>43594</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A79E58-3F22-4A4D-BCF5-DF517CFE627D}">
+  <dimension ref="B3:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="15"/>
+    <col min="2" max="2" width="23" style="25" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="52.5703125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="15" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="19">
+        <v>43717</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="19">
+        <v>43721</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="23">
+        <v>43720</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9F2091-5866-4101-A40B-531DB1BBA4CC}">
+  <dimension ref="B2:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,200 +1013,146 @@
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="25"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B4" s="27">
+        <v>43725</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="23">
+        <v>43728</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B6" s="25"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8BC4021-369B-4573-B590-CB79644E1C26}">
+  <dimension ref="B2:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="7">
-        <v>43710</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B4" s="27">
+        <v>44460</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="8">
-        <v>43710</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7">
-        <v>43594</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="8">
-        <v>43594</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7"/>
-    </row>
-    <row r="8" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="16">
-        <v>43717</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="16">
-        <v>43721</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="18">
-        <v>43720</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="10" t="s">
+    </row>
+    <row r="5" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="23">
+        <v>44462</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="16">
-        <v>43725</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="18">
-        <v>43728</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>32</v>
+      <c r="F5" s="14" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Selga_DailyTask.xlsx
+++ b/Selga_DailyTask.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danica\SE_Grp2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B59BAAB-4177-4B78-8A0E-848563EFE312}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5670CF6-0C0A-4C77-8047-38CB429A6807}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C6E74CF2-123D-440E-A562-D7A1C00E054F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{C6E74CF2-123D-440E-A562-D7A1C00E054F}"/>
   </bookViews>
   <sheets>
     <sheet name="Aug 28- Sep 5" sheetId="1" r:id="rId1"/>
     <sheet name="Sep 11-14" sheetId="2" r:id="rId2"/>
     <sheet name="Sep 16-20" sheetId="3" r:id="rId3"/>
     <sheet name="Sep 23-27" sheetId="4" r:id="rId4"/>
+    <sheet name="Sep 30- Oct 4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="31">
   <si>
     <t>7:30PM</t>
   </si>
@@ -114,6 +115,18 @@
   </si>
   <si>
     <t>1:30pm</t>
+  </si>
+  <si>
+    <t>System Functions (User Profile)</t>
+  </si>
+  <si>
+    <t>System Functions (User registration)</t>
+  </si>
+  <si>
+    <t>2:30PM</t>
+  </si>
+  <si>
+    <t>5PM</t>
   </si>
 </sst>
 </file>
@@ -150,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -390,11 +403,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -473,6 +512,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -791,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E34E7C-B1B8-4314-A30C-B813676F7C49}">
   <dimension ref="B2:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,8 +968,10 @@
     <col min="7" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="15"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="16" t="s">
         <v>3</v>
       </c>
@@ -935,7 +988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="19">
         <v>43717</v>
       </c>
@@ -952,7 +1005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="19">
         <v>43721</v>
       </c>
@@ -969,7 +1022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:6" s="15" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="23">
         <v>43720</v>
       </c>
@@ -986,11 +1039,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="15"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="15"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="15"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="15"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="15"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1088,7 +1151,7 @@
   <dimension ref="B2:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,4 +1218,78 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5586D1EF-DC36-4514-B577-09DD0829A508}">
+  <dimension ref="B2:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="44.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B4" s="27">
+        <v>44492</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="28">
+        <v>44492</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>